--- a/LSA Data Dictionary FY2019.xlsx
+++ b/LSA Data Dictionary FY2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84a436417b82d0fe/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54C71EB9-2B22-4E8D-852D-61E5891E9EC3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -3713,7 +3713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D516"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10960,8 +10962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17208,21 +17210,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7BB265D7978C04697446D294C34266E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="884d559af15d355cca1525f15b65ea2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77672a2e-0500-447c-bfb5-fe50f00aefa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8903f88819ac4802e9a17e43e02e9a2c" ns2:_="">
     <xsd:import namespace="77672a2e-0500-447c-bfb5-fe50f00aefa9"/>
@@ -17368,24 +17355,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C6275C-4ECA-4DA0-9DFB-79D242E0383C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17401,4 +17386,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LSA Data Dictionary FY2019.xlsx
+++ b/LSA Data Dictionary FY2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84a436417b82d0fe/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54C71EB9-2B22-4E8D-852D-61E5891E9EC3}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{499C8925-8F7B-4F37-A56B-FBE46F569B0B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Columns!$A$1:$H$286</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$516</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$518</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="961">
   <si>
     <t>File ID</t>
   </si>
@@ -3048,6 +3048,12 @@
     <t>The total number of EnrollmentIDs where:
 • The enrollment was active in ReportCoC during the report period; and
 • The enrollment does not have a valid value for RelationshipToHoH.</t>
+  </si>
+  <si>
+    <t>n/a (non-HoH under 18 )</t>
+  </si>
+  <si>
+    <t>n/a (non-HoH under 18)</t>
   </si>
 </sst>
 </file>
@@ -3711,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D516"/>
+  <dimension ref="A1:D518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4039,10 +4045,10 @@
         <v>71</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4053,10 +4059,10 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -4067,10 +4073,10 @@
         <v>71</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4081,10 +4087,10 @@
         <v>71</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -4095,10 +4101,10 @@
         <v>71</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4109,10 +4115,10 @@
         <v>71</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -4123,10 +4129,10 @@
         <v>71</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -4137,10 +4143,10 @@
         <v>71</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -4151,24 +4157,24 @@
         <v>71</v>
       </c>
       <c r="C31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -4179,10 +4185,10 @@
         <v>81</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -4193,10 +4199,10 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -4207,38 +4213,38 @@
         <v>81</v>
       </c>
       <c r="C35">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -4249,10 +4255,10 @@
         <v>84</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -4263,38 +4269,38 @@
         <v>84</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -4305,10 +4311,10 @@
         <v>89</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,10 +4325,10 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -4333,38 +4339,38 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -4375,10 +4381,10 @@
         <v>95</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -4389,10 +4395,10 @@
         <v>95</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -4403,10 +4409,10 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -4417,38 +4423,38 @@
         <v>95</v>
       </c>
       <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52">
         <v>22</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="15">
-        <v>11</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15">
-        <v>11</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="15">
-        <v>0</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -4459,10 +4465,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -4473,38 +4479,38 @@
         <v>102</v>
       </c>
       <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15">
+        <v>11</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15">
+        <v>11</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="15">
         <v>2</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>12</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -4515,10 +4521,10 @@
         <v>106</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -4529,10 +4535,10 @@
         <v>106</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -4543,10 +4549,10 @@
         <v>106</v>
       </c>
       <c r="C59">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -4557,10 +4563,10 @@
         <v>106</v>
       </c>
       <c r="C60">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -4571,10 +4577,10 @@
         <v>106</v>
       </c>
       <c r="C61">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -4585,10 +4591,10 @@
         <v>106</v>
       </c>
       <c r="C62">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -4599,10 +4605,10 @@
         <v>106</v>
       </c>
       <c r="C63">
-        <v>730</v>
+        <v>365</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -4613,10 +4619,10 @@
         <v>106</v>
       </c>
       <c r="C64">
-        <v>1094</v>
+        <v>547</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4627,38 +4633,38 @@
         <v>106</v>
       </c>
       <c r="C65">
-        <v>1095</v>
+        <v>730</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C66">
-        <v>-1</v>
+        <v>1094</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>1095</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -4669,10 +4675,10 @@
         <v>112</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -4683,10 +4689,10 @@
         <v>112</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4697,38 +4703,38 @@
         <v>112</v>
       </c>
       <c r="C70">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4739,10 +4745,10 @@
         <v>117</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4753,10 +4759,10 @@
         <v>117</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4767,10 +4773,10 @@
         <v>117</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4781,10 +4787,10 @@
         <v>117</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4795,10 +4801,10 @@
         <v>117</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4809,10 +4815,10 @@
         <v>117</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4823,10 +4829,10 @@
         <v>117</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4837,10 +4843,10 @@
         <v>117</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4851,10 +4857,10 @@
         <v>117</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4865,10 +4871,10 @@
         <v>117</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4879,10 +4885,10 @@
         <v>117</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4893,10 +4899,10 @@
         <v>117</v>
       </c>
       <c r="C84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -4907,10 +4913,10 @@
         <v>117</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -4921,10 +4927,10 @@
         <v>117</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -4935,10 +4941,10 @@
         <v>117</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -4949,38 +4955,38 @@
         <v>117</v>
       </c>
       <c r="C88">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C89">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -4991,10 +4997,10 @@
         <v>135</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -5005,10 +5011,10 @@
         <v>135</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -5019,10 +5025,10 @@
         <v>135</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -5033,10 +5039,10 @@
         <v>135</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -5047,10 +5053,10 @@
         <v>135</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -5061,10 +5067,10 @@
         <v>135</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -5075,10 +5081,10 @@
         <v>135</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -5089,10 +5095,10 @@
         <v>135</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -5103,10 +5109,10 @@
         <v>135</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -5117,10 +5123,10 @@
         <v>135</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -5131,10 +5137,10 @@
         <v>135</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -5145,10 +5151,10 @@
         <v>135</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -5159,10 +5165,10 @@
         <v>135</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -5173,10 +5179,10 @@
         <v>135</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -5187,38 +5193,38 @@
         <v>135</v>
       </c>
       <c r="C105">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -5229,10 +5235,10 @@
         <v>147</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -5243,10 +5249,10 @@
         <v>147</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -5257,10 +5263,10 @@
         <v>147</v>
       </c>
       <c r="C110">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -5271,10 +5277,10 @@
         <v>147</v>
       </c>
       <c r="C111">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -5285,10 +5291,10 @@
         <v>147</v>
       </c>
       <c r="C112">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -5299,10 +5305,10 @@
         <v>147</v>
       </c>
       <c r="C113">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -5313,10 +5319,10 @@
         <v>147</v>
       </c>
       <c r="C114">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -5327,10 +5333,10 @@
         <v>147</v>
       </c>
       <c r="C115">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -5341,38 +5347,38 @@
         <v>147</v>
       </c>
       <c r="C116">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C117">
-        <v>-1</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -5383,10 +5389,10 @@
         <v>158</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -5397,10 +5403,10 @@
         <v>158</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -5411,10 +5417,10 @@
         <v>158</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -5425,10 +5431,10 @@
         <v>158</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -5439,10 +5445,10 @@
         <v>158</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -5453,10 +5459,10 @@
         <v>158</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -5467,10 +5473,10 @@
         <v>158</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -5481,10 +5487,10 @@
         <v>158</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -5495,10 +5501,10 @@
         <v>158</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -5509,10 +5515,10 @@
         <v>158</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -5523,38 +5529,38 @@
         <v>158</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C130">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -5565,10 +5571,10 @@
         <v>171</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -5579,10 +5585,10 @@
         <v>171</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -5593,10 +5599,10 @@
         <v>171</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -5607,10 +5613,10 @@
         <v>171</v>
       </c>
       <c r="C135">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -5621,10 +5627,10 @@
         <v>171</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -5635,10 +5641,10 @@
         <v>171</v>
       </c>
       <c r="C137">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -5649,10 +5655,10 @@
         <v>171</v>
       </c>
       <c r="C138">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -5663,10 +5669,10 @@
         <v>171</v>
       </c>
       <c r="C139">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -5677,10 +5683,10 @@
         <v>171</v>
       </c>
       <c r="C140">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D140" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -5691,10 +5697,10 @@
         <v>171</v>
       </c>
       <c r="C141">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -5705,10 +5711,10 @@
         <v>171</v>
       </c>
       <c r="C142">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D142" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -5719,38 +5725,38 @@
         <v>171</v>
       </c>
       <c r="C143">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D143" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C144">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -5761,10 +5767,10 @@
         <v>184</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -5775,10 +5781,10 @@
         <v>184</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -5789,10 +5795,10 @@
         <v>184</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -5803,10 +5809,10 @@
         <v>184</v>
       </c>
       <c r="C149">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -5817,38 +5823,38 @@
         <v>184</v>
       </c>
       <c r="C150">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C151">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D151" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D152" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -5859,10 +5865,10 @@
         <v>189</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -5873,10 +5879,10 @@
         <v>189</v>
       </c>
       <c r="C154">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -5887,38 +5893,38 @@
         <v>189</v>
       </c>
       <c r="C155">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C156">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D156" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D157" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -5929,10 +5935,10 @@
         <v>190</v>
       </c>
       <c r="C158">
-        <v>270</v>
+        <v>-1</v>
       </c>
       <c r="D158" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -5943,10 +5949,10 @@
         <v>190</v>
       </c>
       <c r="C159">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -5957,38 +5963,38 @@
         <v>190</v>
       </c>
       <c r="C160">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="D160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C161">
-        <v>-1</v>
+        <v>365</v>
       </c>
       <c r="D161" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D162" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -5999,10 +6005,10 @@
         <v>195</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D163" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -6013,10 +6019,10 @@
         <v>195</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -6027,38 +6033,38 @@
         <v>195</v>
       </c>
       <c r="C165">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -6069,10 +6075,10 @@
         <v>199</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D168" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -6083,10 +6089,10 @@
         <v>199</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -6097,10 +6103,10 @@
         <v>199</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -6111,10 +6117,10 @@
         <v>199</v>
       </c>
       <c r="C171">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -6125,38 +6131,38 @@
         <v>199</v>
       </c>
       <c r="C172">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C173">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D173" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D174" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -6167,10 +6173,10 @@
         <v>204</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -6181,24 +6187,24 @@
         <v>204</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>24</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" t="s">
         <v>204</v>
       </c>
-      <c r="C177" s="5">
-        <v>9</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>208</v>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -6209,38 +6215,38 @@
         <v>204</v>
       </c>
       <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
+        <v>24</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C179" s="5">
+        <v>9</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>24</v>
+      </c>
+      <c r="B180" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180">
         <v>12</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>24</v>
-      </c>
-      <c r="B179" t="s">
-        <v>204</v>
-      </c>
-      <c r="C179">
-        <v>13</v>
-      </c>
-      <c r="D179" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="5">
-        <v>24</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="5">
-        <v>19</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -6251,10 +6257,10 @@
         <v>204</v>
       </c>
       <c r="C181">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6265,38 +6271,38 @@
         <v>204</v>
       </c>
       <c r="C182" s="5">
+        <v>19</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s">
+        <v>204</v>
+      </c>
+      <c r="C183">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
+        <v>24</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" s="5">
         <v>29</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D184" s="5" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="5">
-        <v>24</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C183" s="5">
-        <v>39</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>24</v>
-      </c>
-      <c r="B184" t="s">
-        <v>204</v>
-      </c>
-      <c r="C184">
-        <v>123</v>
-      </c>
-      <c r="D184" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6307,24 +6313,24 @@
         <v>204</v>
       </c>
       <c r="C185" s="5">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>24</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" t="s">
         <v>204</v>
       </c>
-      <c r="C186" s="5">
-        <v>139</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>217</v>
+      <c r="C186">
+        <v>123</v>
+      </c>
+      <c r="D186" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6335,10 +6341,10 @@
         <v>204</v>
       </c>
       <c r="C187" s="5">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6349,38 +6355,38 @@
         <v>204</v>
       </c>
       <c r="C188" s="5">
+        <v>139</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>24</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="5">
+        <v>239</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>24</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="5">
         <v>1239</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D190" s="5" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>25</v>
-      </c>
-      <c r="B189" t="s">
-        <v>220</v>
-      </c>
-      <c r="C189">
-        <v>-1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>25</v>
-      </c>
-      <c r="B190" t="s">
-        <v>220</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -6391,24 +6397,24 @@
         <v>220</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D191" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>25</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" t="s">
         <v>220</v>
       </c>
-      <c r="C192" s="5">
-        <v>9</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>208</v>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -6419,10 +6425,10 @@
         <v>220</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6433,24 +6439,24 @@
         <v>220</v>
       </c>
       <c r="C194" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>25</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" t="s">
         <v>220</v>
       </c>
-      <c r="C195" s="5">
-        <v>29</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>213</v>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6461,38 +6467,38 @@
         <v>220</v>
       </c>
       <c r="C196" s="5">
+        <v>19</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
+        <v>25</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C197" s="5">
+        <v>29</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>25</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C198" s="5">
         <v>129</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D198" s="5" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>27</v>
-      </c>
-      <c r="B197" t="s">
-        <v>221</v>
-      </c>
-      <c r="C197">
-        <v>-2</v>
-      </c>
-      <c r="D197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>27</v>
-      </c>
-      <c r="B198" t="s">
-        <v>221</v>
-      </c>
-      <c r="C198">
-        <v>-1</v>
-      </c>
-      <c r="D198" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -6503,38 +6509,38 @@
         <v>221</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D199" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -6545,10 +6551,10 @@
         <v>225</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -6559,38 +6565,38 @@
         <v>225</v>
       </c>
       <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>28</v>
+      </c>
+      <c r="B204" t="s">
+        <v>225</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>28</v>
+      </c>
+      <c r="B205" t="s">
+        <v>225</v>
+      </c>
+      <c r="C205">
         <v>4</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D205" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="5">
-        <v>28</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C204" s="5">
-        <v>5</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="5">
-        <v>28</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C205" s="5">
-        <v>6</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6601,10 +6607,10 @@
         <v>225</v>
       </c>
       <c r="C206" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -6615,38 +6621,38 @@
         <v>225</v>
       </c>
       <c r="C207" s="5">
+        <v>6</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="5">
+        <v>28</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="5">
+        <v>7</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="5">
+        <v>28</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C209" s="5">
         <v>8</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D209" s="5" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>29</v>
-      </c>
-      <c r="B208" t="s">
-        <v>234</v>
-      </c>
-      <c r="C208">
-        <v>-2</v>
-      </c>
-      <c r="D208" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <v>29</v>
-      </c>
-      <c r="B209" t="s">
-        <v>234</v>
-      </c>
-      <c r="C209">
-        <v>-1</v>
-      </c>
-      <c r="D209" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -6657,10 +6663,10 @@
         <v>234</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D210" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -6671,10 +6677,10 @@
         <v>234</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D211" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -6685,10 +6691,10 @@
         <v>234</v>
       </c>
       <c r="C212">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -6699,10 +6705,10 @@
         <v>234</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -6713,10 +6719,10 @@
         <v>234</v>
       </c>
       <c r="C214">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -6727,52 +6733,52 @@
         <v>234</v>
       </c>
       <c r="C215">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>29</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" t="s">
         <v>234</v>
       </c>
-      <c r="C216" s="5">
-        <v>20</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>241</v>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C217">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>30</v>
-      </c>
-      <c r="B218" t="s">
-        <v>242</v>
-      </c>
-      <c r="C218">
-        <v>2</v>
-      </c>
-      <c r="D218" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
+        <v>29</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="5">
+        <v>20</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -6783,10 +6789,10 @@
         <v>242</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -6797,10 +6803,10 @@
         <v>242</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -6811,10 +6817,10 @@
         <v>242</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -6825,10 +6831,10 @@
         <v>242</v>
       </c>
       <c r="C222">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -6839,10 +6845,10 @@
         <v>242</v>
       </c>
       <c r="C223">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -6853,10 +6859,10 @@
         <v>242</v>
       </c>
       <c r="C224">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -6867,10 +6873,10 @@
         <v>242</v>
       </c>
       <c r="C225">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -6881,10 +6887,10 @@
         <v>242</v>
       </c>
       <c r="C226">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -6895,10 +6901,10 @@
         <v>242</v>
       </c>
       <c r="C227">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -6909,10 +6915,10 @@
         <v>242</v>
       </c>
       <c r="C228">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -6923,38 +6929,38 @@
         <v>242</v>
       </c>
       <c r="C229">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -6965,10 +6971,10 @@
         <v>256</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -6979,10 +6985,10 @@
         <v>256</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -6993,38 +6999,38 @@
         <v>256</v>
       </c>
       <c r="C234">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>257</v>
-      </c>
-      <c r="C235" s="5">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
-      </c>
-      <c r="C236" s="5">
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="C236">
+        <v>99</v>
       </c>
       <c r="D236" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -7035,10 +7041,10 @@
         <v>257</v>
       </c>
       <c r="C237" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -7049,10 +7055,10 @@
         <v>257</v>
       </c>
       <c r="C238" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -7063,10 +7069,10 @@
         <v>257</v>
       </c>
       <c r="C239" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -7077,10 +7083,10 @@
         <v>257</v>
       </c>
       <c r="C240" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -7091,10 +7097,10 @@
         <v>257</v>
       </c>
       <c r="C241" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -7105,10 +7111,10 @@
         <v>257</v>
       </c>
       <c r="C242" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -7119,10 +7125,10 @@
         <v>257</v>
       </c>
       <c r="C243" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -7133,10 +7139,10 @@
         <v>257</v>
       </c>
       <c r="C244" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -7147,10 +7153,10 @@
         <v>257</v>
       </c>
       <c r="C245" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -7161,10 +7167,10 @@
         <v>257</v>
       </c>
       <c r="C246" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -7175,10 +7181,10 @@
         <v>257</v>
       </c>
       <c r="C247" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -7189,10 +7195,10 @@
         <v>257</v>
       </c>
       <c r="C248" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -7203,10 +7209,10 @@
         <v>257</v>
       </c>
       <c r="C249" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -7217,10 +7223,10 @@
         <v>257</v>
       </c>
       <c r="C250" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -7231,10 +7237,10 @@
         <v>257</v>
       </c>
       <c r="C251" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -7245,10 +7251,10 @@
         <v>257</v>
       </c>
       <c r="C252" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>273</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -7259,10 +7265,10 @@
         <v>257</v>
       </c>
       <c r="C253" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -7273,10 +7279,10 @@
         <v>257</v>
       </c>
       <c r="C254" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D254" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -7287,10 +7293,10 @@
         <v>257</v>
       </c>
       <c r="C255" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -7301,10 +7307,10 @@
         <v>257</v>
       </c>
       <c r="C256" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -7315,10 +7321,10 @@
         <v>257</v>
       </c>
       <c r="C257" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>276</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -7329,10 +7335,10 @@
         <v>257</v>
       </c>
       <c r="C258" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -7342,11 +7348,11 @@
       <c r="B259" t="s">
         <v>257</v>
       </c>
-      <c r="C259">
-        <v>24</v>
+      <c r="C259" s="5">
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -7356,11 +7362,11 @@
       <c r="B260" t="s">
         <v>257</v>
       </c>
-      <c r="C260">
-        <v>25</v>
+      <c r="C260" s="5">
+        <v>23</v>
       </c>
       <c r="D260" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -7371,10 +7377,10 @@
         <v>257</v>
       </c>
       <c r="C261">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -7385,10 +7391,10 @@
         <v>257</v>
       </c>
       <c r="C262">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D262" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -7399,10 +7405,10 @@
         <v>257</v>
       </c>
       <c r="C263">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D263" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -7413,10 +7419,10 @@
         <v>257</v>
       </c>
       <c r="C264">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D264" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -7427,10 +7433,10 @@
         <v>257</v>
       </c>
       <c r="C265">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D265" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -7441,10 +7447,10 @@
         <v>257</v>
       </c>
       <c r="C266">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -7455,10 +7461,10 @@
         <v>257</v>
       </c>
       <c r="C267">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D267" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -7469,10 +7475,10 @@
         <v>257</v>
       </c>
       <c r="C268">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D268" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -7483,10 +7489,10 @@
         <v>257</v>
       </c>
       <c r="C269">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D269" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -7497,10 +7503,10 @@
         <v>257</v>
       </c>
       <c r="C270">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D270" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -7511,10 +7517,10 @@
         <v>257</v>
       </c>
       <c r="C271">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D271" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -7525,10 +7531,10 @@
         <v>257</v>
       </c>
       <c r="C272">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D272" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -7539,10 +7545,10 @@
         <v>257</v>
       </c>
       <c r="C273">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D273" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -7552,11 +7558,11 @@
       <c r="B274" t="s">
         <v>257</v>
       </c>
-      <c r="C274" s="5">
-        <v>39</v>
+      <c r="C274">
+        <v>37</v>
       </c>
       <c r="D274" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,11 +7572,11 @@
       <c r="B275" t="s">
         <v>257</v>
       </c>
-      <c r="C275" s="5">
-        <v>40</v>
+      <c r="C275">
+        <v>38</v>
       </c>
       <c r="D275" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -7581,10 +7587,10 @@
         <v>257</v>
       </c>
       <c r="C276" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D276" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -7595,10 +7601,10 @@
         <v>257</v>
       </c>
       <c r="C277" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D277" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -7609,10 +7615,10 @@
         <v>257</v>
       </c>
       <c r="C278" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D278" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -7623,10 +7629,10 @@
         <v>257</v>
       </c>
       <c r="C279" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D279" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -7637,10 +7643,10 @@
         <v>257</v>
       </c>
       <c r="C280" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D280" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -7651,10 +7657,10 @@
         <v>257</v>
       </c>
       <c r="C281" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D281" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -7665,10 +7671,10 @@
         <v>257</v>
       </c>
       <c r="C282" s="5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D282" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -7679,10 +7685,10 @@
         <v>257</v>
       </c>
       <c r="C283" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D283" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -7693,10 +7699,10 @@
         <v>257</v>
       </c>
       <c r="C284" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D284" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -7707,10 +7713,10 @@
         <v>257</v>
       </c>
       <c r="C285" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D285" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -7721,10 +7727,10 @@
         <v>257</v>
       </c>
       <c r="C286" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D286" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -7735,10 +7741,10 @@
         <v>257</v>
       </c>
       <c r="C287" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D287" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -7749,10 +7755,10 @@
         <v>257</v>
       </c>
       <c r="C288" s="5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D288" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -7763,10 +7769,10 @@
         <v>257</v>
       </c>
       <c r="C289" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -7777,10 +7783,10 @@
         <v>257</v>
       </c>
       <c r="C290" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D290" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -7791,10 +7797,10 @@
         <v>257</v>
       </c>
       <c r="C291" s="5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D291" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -7805,10 +7811,10 @@
         <v>257</v>
       </c>
       <c r="C292" s="5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D292" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -7819,10 +7825,10 @@
         <v>257</v>
       </c>
       <c r="C293" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D293" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -7833,10 +7839,10 @@
         <v>257</v>
       </c>
       <c r="C294" s="5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D294" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -7847,10 +7853,10 @@
         <v>257</v>
       </c>
       <c r="C295" s="5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D295" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -7861,10 +7867,10 @@
         <v>257</v>
       </c>
       <c r="C296" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D296" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -7875,10 +7881,10 @@
         <v>257</v>
       </c>
       <c r="C297" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D297" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -7889,10 +7895,10 @@
         <v>257</v>
       </c>
       <c r="C298" s="5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D298" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -7903,10 +7909,10 @@
         <v>257</v>
       </c>
       <c r="C299" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D299" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -7917,10 +7923,10 @@
         <v>257</v>
       </c>
       <c r="C300" s="5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D300" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -7931,10 +7937,10 @@
         <v>257</v>
       </c>
       <c r="C301" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D301" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -7945,10 +7951,10 @@
         <v>257</v>
       </c>
       <c r="C302" s="5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D302" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -7959,10 +7965,10 @@
         <v>257</v>
       </c>
       <c r="C303" s="5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D303" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -7973,10 +7979,10 @@
         <v>257</v>
       </c>
       <c r="C304" s="5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D304" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -7987,10 +7993,10 @@
         <v>257</v>
       </c>
       <c r="C305" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D305" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -8001,10 +8007,10 @@
         <v>257</v>
       </c>
       <c r="C306" s="5">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D306" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -8015,10 +8021,10 @@
         <v>257</v>
       </c>
       <c r="C307" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D307" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -8029,10 +8035,10 @@
         <v>257</v>
       </c>
       <c r="C308" s="5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D308" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -8043,10 +8049,10 @@
         <v>257</v>
       </c>
       <c r="C309" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D309" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -8057,10 +8063,10 @@
         <v>257</v>
       </c>
       <c r="C310" s="5">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D310" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -8071,10 +8077,10 @@
         <v>257</v>
       </c>
       <c r="C311" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D311" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -8085,10 +8091,10 @@
         <v>257</v>
       </c>
       <c r="C312" s="5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D312" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -8099,10 +8105,10 @@
         <v>257</v>
       </c>
       <c r="C313" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D313" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -8113,10 +8119,10 @@
         <v>257</v>
       </c>
       <c r="C314" s="5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D314" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -8127,10 +8133,10 @@
         <v>257</v>
       </c>
       <c r="C315" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D315" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -8141,10 +8147,10 @@
         <v>257</v>
       </c>
       <c r="C316" s="5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D316" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -8155,10 +8161,10 @@
         <v>257</v>
       </c>
       <c r="C317" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D317" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -8169,10 +8175,10 @@
         <v>257</v>
       </c>
       <c r="C318" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D318" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -8183,10 +8189,10 @@
         <v>257</v>
       </c>
       <c r="C319" s="5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D319" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -8197,10 +8203,10 @@
         <v>257</v>
       </c>
       <c r="C320" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D320" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -8211,10 +8217,10 @@
         <v>257</v>
       </c>
       <c r="C321" s="5">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D321" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -8225,10 +8231,10 @@
         <v>257</v>
       </c>
       <c r="C322" s="5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D322" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -8239,10 +8245,10 @@
         <v>257</v>
       </c>
       <c r="C323" s="5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D323" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -8253,10 +8259,10 @@
         <v>257</v>
       </c>
       <c r="C324" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D324" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -8267,10 +8273,10 @@
         <v>257</v>
       </c>
       <c r="C325" s="5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D325" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -8281,10 +8287,10 @@
         <v>257</v>
       </c>
       <c r="C326" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D326" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -8295,10 +8301,10 @@
         <v>257</v>
       </c>
       <c r="C327" s="5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D327" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -8309,10 +8315,10 @@
         <v>257</v>
       </c>
       <c r="C328" s="5">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D328" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -8323,10 +8329,10 @@
         <v>257</v>
       </c>
       <c r="C329" s="5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D329" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -8337,10 +8343,10 @@
         <v>257</v>
       </c>
       <c r="C330" s="5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D330" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -8351,10 +8357,10 @@
         <v>257</v>
       </c>
       <c r="C331" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D331" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -8364,11 +8370,11 @@
       <c r="B332" t="s">
         <v>257</v>
       </c>
-      <c r="C332">
-        <v>97</v>
+      <c r="C332" s="5">
+        <v>95</v>
       </c>
       <c r="D332" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -8378,11 +8384,11 @@
       <c r="B333" t="s">
         <v>257</v>
       </c>
-      <c r="C333">
-        <v>98</v>
+      <c r="C333" s="5">
+        <v>96</v>
       </c>
       <c r="D333" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -8393,10 +8399,10 @@
         <v>257</v>
       </c>
       <c r="C334">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D334" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -8407,10 +8413,10 @@
         <v>257</v>
       </c>
       <c r="C335">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D335" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -8421,10 +8427,10 @@
         <v>257</v>
       </c>
       <c r="C336">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D336" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -8435,10 +8441,10 @@
         <v>257</v>
       </c>
       <c r="C337">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D337" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -8449,10 +8455,10 @@
         <v>257</v>
       </c>
       <c r="C338">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D338" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -8463,10 +8469,10 @@
         <v>257</v>
       </c>
       <c r="C339">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D339" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -8477,10 +8483,10 @@
         <v>257</v>
       </c>
       <c r="C340">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D340" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -8491,10 +8497,10 @@
         <v>257</v>
       </c>
       <c r="C341">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D341" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -8505,10 +8511,10 @@
         <v>257</v>
       </c>
       <c r="C342">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D342" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -8519,10 +8525,10 @@
         <v>257</v>
       </c>
       <c r="C343">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -8533,10 +8539,10 @@
         <v>257</v>
       </c>
       <c r="C344">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D344" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -8547,10 +8553,10 @@
         <v>257</v>
       </c>
       <c r="C345">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D345" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -8561,10 +8567,10 @@
         <v>257</v>
       </c>
       <c r="C346">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D346" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -8575,10 +8581,10 @@
         <v>257</v>
       </c>
       <c r="C347">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D347" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -8589,10 +8595,10 @@
         <v>257</v>
       </c>
       <c r="C348">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D348" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -8603,10 +8609,10 @@
         <v>257</v>
       </c>
       <c r="C349">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D349" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -8617,10 +8623,10 @@
         <v>257</v>
       </c>
       <c r="C350">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D350" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -8631,10 +8637,10 @@
         <v>257</v>
       </c>
       <c r="C351">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D351" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -8645,10 +8651,10 @@
         <v>257</v>
       </c>
       <c r="C352">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D352" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -8659,10 +8665,10 @@
         <v>257</v>
       </c>
       <c r="C353">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D353" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -8673,10 +8679,10 @@
         <v>257</v>
       </c>
       <c r="C354">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D354" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -8687,10 +8693,10 @@
         <v>257</v>
       </c>
       <c r="C355">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D355" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -8701,10 +8707,10 @@
         <v>257</v>
       </c>
       <c r="C356">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D356" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -8715,10 +8721,10 @@
         <v>257</v>
       </c>
       <c r="C357">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D357" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -8729,10 +8735,10 @@
         <v>257</v>
       </c>
       <c r="C358">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D358" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -8743,10 +8749,10 @@
         <v>257</v>
       </c>
       <c r="C359">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D359" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -8757,10 +8763,10 @@
         <v>257</v>
       </c>
       <c r="C360">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D360" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -8771,10 +8777,10 @@
         <v>257</v>
       </c>
       <c r="C361">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D361" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -8785,10 +8791,10 @@
         <v>257</v>
       </c>
       <c r="C362">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D362" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -8799,10 +8805,10 @@
         <v>257</v>
       </c>
       <c r="C363">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D363" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -8813,10 +8819,10 @@
         <v>257</v>
       </c>
       <c r="C364">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D364" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -8827,10 +8833,10 @@
         <v>257</v>
       </c>
       <c r="C365">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D365" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -8841,10 +8847,10 @@
         <v>257</v>
       </c>
       <c r="C366">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D366" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -8855,10 +8861,10 @@
         <v>257</v>
       </c>
       <c r="C367">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D367" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -8869,10 +8875,10 @@
         <v>257</v>
       </c>
       <c r="C368">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D368" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -8883,10 +8889,10 @@
         <v>257</v>
       </c>
       <c r="C369">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D369" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -8897,10 +8903,10 @@
         <v>257</v>
       </c>
       <c r="C370">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D370" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -8911,10 +8917,10 @@
         <v>257</v>
       </c>
       <c r="C371">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D371" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -8925,10 +8931,10 @@
         <v>257</v>
       </c>
       <c r="C372">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D372" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -8939,10 +8945,10 @@
         <v>257</v>
       </c>
       <c r="C373">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D373" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -8953,10 +8959,10 @@
         <v>257</v>
       </c>
       <c r="C374">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D374" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -8967,10 +8973,10 @@
         <v>257</v>
       </c>
       <c r="C375">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D375" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -8981,10 +8987,10 @@
         <v>257</v>
       </c>
       <c r="C376">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D376" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -8995,10 +9001,10 @@
         <v>257</v>
       </c>
       <c r="C377">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D377" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -9009,10 +9015,10 @@
         <v>257</v>
       </c>
       <c r="C378">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D378" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -9023,10 +9029,10 @@
         <v>257</v>
       </c>
       <c r="C379">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D379" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -9037,10 +9043,10 @@
         <v>257</v>
       </c>
       <c r="C380">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D380" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -9051,10 +9057,10 @@
         <v>257</v>
       </c>
       <c r="C381">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D381" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -9065,10 +9071,10 @@
         <v>257</v>
       </c>
       <c r="C382">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D382" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -9079,38 +9085,38 @@
         <v>257</v>
       </c>
       <c r="C383">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D383" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B384" t="s">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D384" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B385" t="s">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="C385">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D385" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -9121,10 +9127,10 @@
         <v>398</v>
       </c>
       <c r="C386">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -9135,10 +9141,10 @@
         <v>398</v>
       </c>
       <c r="C387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D387" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -9149,10 +9155,10 @@
         <v>398</v>
       </c>
       <c r="C388">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D388" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -9163,10 +9169,10 @@
         <v>398</v>
       </c>
       <c r="C389">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D389" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -9177,10 +9183,10 @@
         <v>398</v>
       </c>
       <c r="C390">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D390" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -9191,10 +9197,10 @@
         <v>398</v>
       </c>
       <c r="C391">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D391" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -9205,10 +9211,10 @@
         <v>398</v>
       </c>
       <c r="C392">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D392" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -9219,10 +9225,10 @@
         <v>398</v>
       </c>
       <c r="C393">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D393" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -9233,10 +9239,10 @@
         <v>398</v>
       </c>
       <c r="C394">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D394" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -9247,10 +9253,10 @@
         <v>398</v>
       </c>
       <c r="C395">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D395" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -9261,10 +9267,10 @@
         <v>398</v>
       </c>
       <c r="C396">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D396" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -9275,10 +9281,10 @@
         <v>398</v>
       </c>
       <c r="C397">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D397" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -9289,10 +9295,10 @@
         <v>398</v>
       </c>
       <c r="C398">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D398" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -9303,10 +9309,10 @@
         <v>398</v>
       </c>
       <c r="C399">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D399" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -9317,10 +9323,10 @@
         <v>398</v>
       </c>
       <c r="C400">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D400" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -9331,10 +9337,10 @@
         <v>398</v>
       </c>
       <c r="C401">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D401" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -9345,10 +9351,10 @@
         <v>398</v>
       </c>
       <c r="C402">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D402" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -9359,10 +9365,10 @@
         <v>398</v>
       </c>
       <c r="C403">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D403" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -9373,10 +9379,10 @@
         <v>398</v>
       </c>
       <c r="C404">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D404" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -9387,10 +9393,10 @@
         <v>398</v>
       </c>
       <c r="C405">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D405" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -9401,10 +9407,10 @@
         <v>398</v>
       </c>
       <c r="C406">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -9415,10 +9421,10 @@
         <v>398</v>
       </c>
       <c r="C407">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -9429,10 +9435,10 @@
         <v>398</v>
       </c>
       <c r="C408">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -9443,10 +9449,10 @@
         <v>398</v>
       </c>
       <c r="C409">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D409" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -9457,10 +9463,10 @@
         <v>398</v>
       </c>
       <c r="C410">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -9471,10 +9477,10 @@
         <v>398</v>
       </c>
       <c r="C411">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D411" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -9485,10 +9491,10 @@
         <v>398</v>
       </c>
       <c r="C412">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D412" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -9499,10 +9505,10 @@
         <v>398</v>
       </c>
       <c r="C413">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D413" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -9513,10 +9519,10 @@
         <v>398</v>
       </c>
       <c r="C414">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D414" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -9527,10 +9533,10 @@
         <v>398</v>
       </c>
       <c r="C415">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D415" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -9541,10 +9547,10 @@
         <v>398</v>
       </c>
       <c r="C416">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D416" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -9555,10 +9561,10 @@
         <v>398</v>
       </c>
       <c r="C417">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D417" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -9569,10 +9575,10 @@
         <v>398</v>
       </c>
       <c r="C418">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D418" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -9583,10 +9589,10 @@
         <v>398</v>
       </c>
       <c r="C419">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D419" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -9597,10 +9603,10 @@
         <v>398</v>
       </c>
       <c r="C420">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D420" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -9611,10 +9617,10 @@
         <v>398</v>
       </c>
       <c r="C421">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D421" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -9625,10 +9631,10 @@
         <v>398</v>
       </c>
       <c r="C422">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D422" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
@@ -9639,10 +9645,10 @@
         <v>398</v>
       </c>
       <c r="C423">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D423" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
@@ -9653,10 +9659,10 @@
         <v>398</v>
       </c>
       <c r="C424">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D424" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
@@ -9667,10 +9673,10 @@
         <v>398</v>
       </c>
       <c r="C425">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D425" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -9681,10 +9687,10 @@
         <v>398</v>
       </c>
       <c r="C426">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D426" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -9695,10 +9701,10 @@
         <v>398</v>
       </c>
       <c r="C427">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D427" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
@@ -9709,10 +9715,10 @@
         <v>398</v>
       </c>
       <c r="C428">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D428" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -9723,10 +9729,10 @@
         <v>398</v>
       </c>
       <c r="C429">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D429" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
@@ -9737,10 +9743,10 @@
         <v>398</v>
       </c>
       <c r="C430">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D430" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -9751,10 +9757,10 @@
         <v>398</v>
       </c>
       <c r="C431">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D431" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
@@ -9765,10 +9771,10 @@
         <v>398</v>
       </c>
       <c r="C432">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D432" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
@@ -9779,10 +9785,10 @@
         <v>398</v>
       </c>
       <c r="C433">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D433" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
@@ -9793,10 +9799,10 @@
         <v>398</v>
       </c>
       <c r="C434">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D434" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
@@ -9807,10 +9813,10 @@
         <v>398</v>
       </c>
       <c r="C435">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D435" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
@@ -9821,10 +9827,10 @@
         <v>398</v>
       </c>
       <c r="C436">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D436" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
@@ -9835,10 +9841,10 @@
         <v>398</v>
       </c>
       <c r="C437">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D437" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
@@ -9849,10 +9855,10 @@
         <v>398</v>
       </c>
       <c r="C438">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D438" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
@@ -9863,10 +9869,10 @@
         <v>398</v>
       </c>
       <c r="C439">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D439" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
@@ -9877,38 +9883,38 @@
         <v>398</v>
       </c>
       <c r="C440">
+        <v>55</v>
+      </c>
+      <c r="D440" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>33</v>
+      </c>
+      <c r="B441" t="s">
+        <v>398</v>
+      </c>
+      <c r="C441">
+        <v>56</v>
+      </c>
+      <c r="D441" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>33</v>
+      </c>
+      <c r="B442" t="s">
+        <v>398</v>
+      </c>
+      <c r="C442">
         <v>57</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D442" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="5">
-        <v>33</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C441" s="5">
-        <v>58</v>
-      </c>
-      <c r="D441" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="5">
-        <v>33</v>
-      </c>
-      <c r="B442" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C442" s="5">
-        <v>59</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="443" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9919,10 +9925,10 @@
         <v>398</v>
       </c>
       <c r="C443" s="5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="444" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9933,10 +9939,10 @@
         <v>398</v>
       </c>
       <c r="C444" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9947,38 +9953,38 @@
         <v>398</v>
       </c>
       <c r="C445" s="5">
+        <v>60</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="5">
+        <v>33</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C446" s="5">
+        <v>61</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="5">
+        <v>33</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C447" s="5">
         <v>62</v>
       </c>
-      <c r="D445" s="5" t="s">
+      <c r="D447" s="5" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>34</v>
-      </c>
-      <c r="B446" t="s">
-        <v>461</v>
-      </c>
-      <c r="C446">
-        <v>1</v>
-      </c>
-      <c r="D446" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>34</v>
-      </c>
-      <c r="B447" t="s">
-        <v>461</v>
-      </c>
-      <c r="C447">
-        <v>2</v>
-      </c>
-      <c r="D447" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
@@ -9989,10 +9995,10 @@
         <v>461</v>
       </c>
       <c r="C448">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
@@ -10003,10 +10009,10 @@
         <v>461</v>
       </c>
       <c r="C449">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D449" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
@@ -10017,10 +10023,10 @@
         <v>461</v>
       </c>
       <c r="C450">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D450" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
@@ -10031,10 +10037,10 @@
         <v>461</v>
       </c>
       <c r="C451">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D451" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
@@ -10045,66 +10051,66 @@
         <v>461</v>
       </c>
       <c r="C452">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D452" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B453" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D453" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B454" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C454">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D454" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B455" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D455" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B456" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C456">
         <v>3</v>
       </c>
       <c r="D456" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -10115,38 +10121,38 @@
         <v>468</v>
       </c>
       <c r="C457">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D457" t="s">
-        <v>118</v>
+        <v>469</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B458" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D458" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B459" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C459">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D459" t="s">
-        <v>473</v>
+        <v>118</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
@@ -10157,38 +10163,38 @@
         <v>471</v>
       </c>
       <c r="C460">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D460" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B461" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B462" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="C462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D462" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
@@ -10199,10 +10205,10 @@
         <v>31</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
@@ -10213,10 +10219,10 @@
         <v>31</v>
       </c>
       <c r="C464">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D464" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
@@ -10227,10 +10233,10 @@
         <v>31</v>
       </c>
       <c r="C465">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D465" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -10241,10 +10247,10 @@
         <v>31</v>
       </c>
       <c r="C466">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D466" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -10255,10 +10261,10 @@
         <v>31</v>
       </c>
       <c r="C467">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D467" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
@@ -10269,10 +10275,10 @@
         <v>31</v>
       </c>
       <c r="C468">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D468" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.35">
@@ -10283,10 +10289,10 @@
         <v>31</v>
       </c>
       <c r="C469">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D469" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
@@ -10297,10 +10303,10 @@
         <v>31</v>
       </c>
       <c r="C470">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D470" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
@@ -10311,10 +10317,10 @@
         <v>31</v>
       </c>
       <c r="C471">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D471" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
@@ -10325,10 +10331,10 @@
         <v>31</v>
       </c>
       <c r="C472">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D472" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -10339,10 +10345,10 @@
         <v>31</v>
       </c>
       <c r="C473">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D473" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
@@ -10353,10 +10359,10 @@
         <v>31</v>
       </c>
       <c r="C474">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D474" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
@@ -10367,10 +10373,10 @@
         <v>31</v>
       </c>
       <c r="C475">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D475" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -10381,10 +10387,10 @@
         <v>31</v>
       </c>
       <c r="C476">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D476" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -10395,10 +10401,10 @@
         <v>31</v>
       </c>
       <c r="C477">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D477" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
@@ -10409,10 +10415,10 @@
         <v>31</v>
       </c>
       <c r="C478">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D478" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
@@ -10423,10 +10429,10 @@
         <v>31</v>
       </c>
       <c r="C479">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D479" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
@@ -10437,10 +10443,10 @@
         <v>31</v>
       </c>
       <c r="C480">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D480" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -10451,10 +10457,10 @@
         <v>31</v>
       </c>
       <c r="C481">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D481" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -10465,10 +10471,10 @@
         <v>31</v>
       </c>
       <c r="C482">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D482" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
@@ -10479,10 +10485,10 @@
         <v>31</v>
       </c>
       <c r="C483">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D483" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -10493,10 +10499,10 @@
         <v>31</v>
       </c>
       <c r="C484">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D484" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -10507,10 +10513,10 @@
         <v>31</v>
       </c>
       <c r="C485">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D485" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
@@ -10521,10 +10527,10 @@
         <v>31</v>
       </c>
       <c r="C486">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D486" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -10535,10 +10541,10 @@
         <v>31</v>
       </c>
       <c r="C487">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D487" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
@@ -10549,10 +10555,10 @@
         <v>31</v>
       </c>
       <c r="C488">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
@@ -10563,10 +10569,10 @@
         <v>31</v>
       </c>
       <c r="C489">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D489" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
@@ -10577,10 +10583,10 @@
         <v>31</v>
       </c>
       <c r="C490">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D490" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -10591,10 +10597,10 @@
         <v>31</v>
       </c>
       <c r="C491">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D491" t="s">
-        <v>118</v>
+        <v>503</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -10605,10 +10611,10 @@
         <v>31</v>
       </c>
       <c r="C492">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D492" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
@@ -10619,10 +10625,10 @@
         <v>31</v>
       </c>
       <c r="C493">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D493" t="s">
-        <v>506</v>
+        <v>118</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -10633,10 +10639,10 @@
         <v>31</v>
       </c>
       <c r="C494">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D494" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -10647,10 +10653,10 @@
         <v>31</v>
       </c>
       <c r="C495">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D495" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
@@ -10661,10 +10667,10 @@
         <v>31</v>
       </c>
       <c r="C496">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D496" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
@@ -10675,10 +10681,10 @@
         <v>31</v>
       </c>
       <c r="C497">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D497" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.35">
@@ -10689,10 +10695,10 @@
         <v>31</v>
       </c>
       <c r="C498">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D498" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
@@ -10703,10 +10709,10 @@
         <v>31</v>
       </c>
       <c r="C499">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D499" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
@@ -10717,10 +10723,10 @@
         <v>31</v>
       </c>
       <c r="C500">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D500" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
@@ -10731,10 +10737,10 @@
         <v>31</v>
       </c>
       <c r="C501">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D501" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
@@ -10745,10 +10751,10 @@
         <v>31</v>
       </c>
       <c r="C502">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D502" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -10759,38 +10765,38 @@
         <v>31</v>
       </c>
       <c r="C503">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D503" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B504" t="s">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D504" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B505" t="s">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="C505">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D505" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
@@ -10801,38 +10807,38 @@
         <v>517</v>
       </c>
       <c r="C506">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D506" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B507" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D507" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B508" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C508">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D508" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
@@ -10843,38 +10849,38 @@
         <v>521</v>
       </c>
       <c r="C509">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D509" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B510" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D510" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B511" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D511" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -10885,38 +10891,38 @@
         <v>525</v>
       </c>
       <c r="C512">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B513" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D513" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B514" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C514">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D514" t="s">
-        <v>114</v>
+        <v>528</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -10927,10 +10933,10 @@
         <v>529</v>
       </c>
       <c r="C515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D515" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
@@ -10941,16 +10947,44 @@
         <v>529</v>
       </c>
       <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>42</v>
+      </c>
+      <c r="B517" t="s">
+        <v>529</v>
+      </c>
+      <c r="C517">
+        <v>3</v>
+      </c>
+      <c r="D517" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>42</v>
+      </c>
+      <c r="B518" t="s">
+        <v>529</v>
+      </c>
+      <c r="C518">
         <v>99</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D518" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D516" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A506:J564">
-    <sortCondition descending="1" ref="C506:C564"/>
+  <autoFilter ref="A1:D518" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A508:J566">
+    <sortCondition descending="1" ref="C508:C566"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17210,6 +17244,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7BB265D7978C04697446D294C34266E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="884d559af15d355cca1525f15b65ea2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77672a2e-0500-447c-bfb5-fe50f00aefa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8903f88819ac4802e9a17e43e02e9a2c" ns2:_="">
     <xsd:import namespace="77672a2e-0500-447c-bfb5-fe50f00aefa9"/>
@@ -17355,22 +17404,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C6275C-4ECA-4DA0-9DFB-79D242E0383C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17386,21 +17437,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LSA Data Dictionary FY2019.xlsx
+++ b/LSA Data Dictionary FY2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84a436417b82d0fe/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{499C8925-8F7B-4F37-A56B-FBE46F569B0B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50655E76-CD08-4FE4-B513-CF83006CCD74}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Columns!$A$1:$H$286</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$520</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="963">
   <si>
     <t>File ID</t>
   </si>
@@ -3054,6 +3054,12 @@
   </si>
   <si>
     <t>n/a (non-HoH under 18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUD:  ESG - CV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUD:  HOPWA - CV </t>
   </si>
 </sst>
 </file>
@@ -3717,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D518"/>
+  <dimension ref="A1:D520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A506" sqref="A506:XFD507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6221,17 +6227,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="5">
+    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="15">
         <v>24</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="15">
         <v>9</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6263,395 +6269,395 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="5">
+    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="15">
         <v>24</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="15">
         <v>19</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="15">
         <v>24</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="15">
         <v>23</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="5">
+    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="15">
         <v>24</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="15">
         <v>29</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="5">
+    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="15">
         <v>24</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="15">
         <v>39</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186">
+    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="15">
         <v>24</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="15">
         <v>123</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="5">
+    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="15">
         <v>24</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="15">
         <v>129</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="5">
+    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="15">
         <v>24</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="15">
         <v>139</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="5">
+    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="15">
         <v>24</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="15">
         <v>239</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="5">
+    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="15">
         <v>24</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="15">
         <v>1239</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191">
+    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="15">
         <v>25</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="15">
         <v>-1</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192">
+    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="15">
         <v>25</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="15">
         <v>1</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193">
+    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="15">
         <v>25</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="15">
         <v>2</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="5">
+    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="15">
         <v>25</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="15">
         <v>9</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195">
+    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="15">
         <v>25</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="15">
         <v>12</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="5">
+    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="15">
         <v>25</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="15">
         <v>19</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="5">
+    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="15">
         <v>25</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="15">
         <v>29</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="5">
+    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="15">
         <v>25</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="15">
         <v>129</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199">
+    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="15">
         <v>27</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="15">
         <v>-2</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200">
+    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="15">
         <v>27</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="15">
         <v>-1</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201">
+    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="15">
         <v>27</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="15">
         <v>0</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202">
+    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="15">
         <v>28</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="15">
         <v>1</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203">
+    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="15">
         <v>28</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="15">
         <v>2</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204">
+    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="15">
         <v>28</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="15">
         <v>3</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205">
+    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="15">
         <v>28</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="15">
         <v>4</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="5">
+    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="15">
         <v>28</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="15">
         <v>5</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="5">
+    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="15">
         <v>28</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="15">
         <v>6</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="5">
+    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="15">
         <v>28</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="15">
         <v>7</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="5">
+    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="15">
         <v>28</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="15">
         <v>8</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="15" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6767,4224 +6773,4252 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="5">
+    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="15">
         <v>29</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="15">
         <v>20</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219">
+    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="15">
         <v>30</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="15">
         <v>-1</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220">
+    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="15">
         <v>30</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="15">
         <v>2</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221">
+    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="15">
         <v>30</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="15">
         <v>3</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222">
+    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="15">
         <v>30</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="15">
         <v>4</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223">
+    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="15">
         <v>30</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="15">
         <v>10</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224">
+    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="15">
         <v>30</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="15">
         <v>11</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225">
+    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="15">
         <v>30</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="15">
         <v>12</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226">
+    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="15">
         <v>30</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="15">
         <v>13</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227">
+    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="15">
         <v>30</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="15">
         <v>14</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228">
+    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="15">
         <v>30</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="15">
         <v>15</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229">
+    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="15">
         <v>30</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="15">
         <v>16</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230">
+    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="15">
         <v>30</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="15">
         <v>17</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231">
+    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="15">
         <v>30</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="15">
         <v>18</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232">
+    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="15">
         <v>31</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="15">
         <v>0</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233">
+    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="15">
         <v>31</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="15">
         <v>1</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234">
+    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="15">
         <v>31</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="15">
         <v>2</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235">
+    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="15">
         <v>31</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="15">
         <v>3</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236">
+    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="15">
         <v>31</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="15">
         <v>99</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237">
+    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="15">
         <v>32</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237" s="15">
         <v>0</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238">
+    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="15">
         <v>32</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="15">
         <v>1</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239">
+    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="15">
         <v>32</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="15">
         <v>2</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240">
+    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="15">
         <v>32</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="15">
         <v>3</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241">
+    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="15">
         <v>32</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="15">
         <v>4</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242">
+    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="15">
         <v>32</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="15">
         <v>5</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243">
+    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="15">
         <v>32</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="15">
         <v>6</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244">
+    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="15">
         <v>32</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244" s="15">
         <v>7</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245">
+    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="15">
         <v>32</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="15">
         <v>8</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246">
+    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="15">
         <v>32</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="15">
         <v>9</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247">
+    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="15">
         <v>32</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="15">
         <v>10</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248">
+    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="15">
         <v>32</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="15">
         <v>11</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249">
+    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="15">
         <v>32</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="15">
         <v>12</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250">
+    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="15">
         <v>32</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="15">
         <v>13</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251">
+    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="15">
         <v>32</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="15">
         <v>14</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252">
+    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="15">
         <v>32</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="15">
         <v>15</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253">
+    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="15">
         <v>32</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" s="15">
         <v>16</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254">
+    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="15">
         <v>32</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254" s="15">
         <v>17</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255">
+    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="15">
         <v>32</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255" s="15">
         <v>18</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256">
+    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="15">
         <v>32</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="15">
         <v>19</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257">
+    <row r="257" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="15">
         <v>32</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C257" s="5">
+      <c r="C257" s="15">
         <v>20</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258">
+    <row r="258" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="15">
         <v>32</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258" s="15">
         <v>21</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259">
+    <row r="259" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="15">
         <v>32</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C259" s="5">
+      <c r="C259" s="15">
         <v>22</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="15" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260">
+    <row r="260" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="15">
         <v>32</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260" s="15">
         <v>23</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261">
+    <row r="261" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="15">
         <v>32</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="15">
         <v>24</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262">
+    <row r="262" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="15">
         <v>32</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="15">
         <v>25</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263">
+    <row r="263" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="15">
         <v>32</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="15">
         <v>26</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264">
+    <row r="264" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="15">
         <v>32</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="15">
         <v>27</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265">
+    <row r="265" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="15">
         <v>32</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="15">
         <v>28</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266">
+    <row r="266" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="15">
         <v>32</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="15">
         <v>29</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267">
+    <row r="267" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="15">
         <v>32</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="15">
         <v>30</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268">
+    <row r="268" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="15">
         <v>32</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="15">
         <v>31</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269">
+    <row r="269" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="15">
         <v>32</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="15">
         <v>32</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270">
+    <row r="270" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="15">
         <v>32</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="15">
         <v>33</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271">
+    <row r="271" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="15">
         <v>32</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="15">
         <v>34</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272">
+    <row r="272" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="15">
         <v>32</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="15">
         <v>35</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273">
+    <row r="273" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="15">
         <v>32</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="15">
         <v>36</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274">
+    <row r="274" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="15">
         <v>32</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="15">
         <v>37</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275">
+    <row r="275" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="15">
         <v>32</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="15">
         <v>38</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276">
+    <row r="276" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="15">
         <v>32</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="15">
         <v>39</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277">
+    <row r="277" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="15">
         <v>32</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C277" s="5">
+      <c r="C277" s="15">
         <v>40</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278">
+    <row r="278" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="15">
         <v>32</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="15">
         <v>41</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279">
+    <row r="279" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="15">
         <v>32</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="15">
         <v>42</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280">
+    <row r="280" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="15">
         <v>32</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="15">
         <v>43</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281">
+    <row r="281" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="15">
         <v>32</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="15">
         <v>44</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282">
+    <row r="282" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="15">
         <v>32</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="15">
         <v>45</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283">
+    <row r="283" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="15">
         <v>32</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="15">
         <v>46</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284">
+    <row r="284" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="15">
         <v>32</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="15">
         <v>47</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285">
+    <row r="285" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="15">
         <v>32</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="15">
         <v>48</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286">
+    <row r="286" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="15">
         <v>32</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="15">
         <v>49</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287">
+    <row r="287" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="15">
         <v>32</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="15">
         <v>50</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288">
+    <row r="288" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="15">
         <v>32</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="15">
         <v>51</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289">
+    <row r="289" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="15">
         <v>32</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="15">
         <v>52</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290">
+    <row r="290" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="15">
         <v>32</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="15">
         <v>53</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="15" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291">
+    <row r="291" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="15">
         <v>32</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="15">
         <v>54</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292">
+    <row r="292" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="15">
         <v>32</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="15">
         <v>55</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="15" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293">
+    <row r="293" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="15">
         <v>32</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="15">
         <v>56</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294">
+    <row r="294" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="15">
         <v>32</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C294" s="15">
         <v>57</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="15" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295">
+    <row r="295" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="15">
         <v>32</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C295" s="5">
+      <c r="C295" s="15">
         <v>58</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296">
+    <row r="296" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="15">
         <v>32</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="15">
         <v>59</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297">
+    <row r="297" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="15">
         <v>32</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C297" s="5">
+      <c r="C297" s="15">
         <v>60</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298">
+    <row r="298" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="15">
         <v>32</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="15">
         <v>61</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299">
+    <row r="299" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="15">
         <v>32</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C299" s="5">
+      <c r="C299" s="15">
         <v>62</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300">
+    <row r="300" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="15">
         <v>32</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="15">
         <v>63</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301">
+    <row r="301" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="15">
         <v>32</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C301" s="5">
+      <c r="C301" s="15">
         <v>64</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302">
+    <row r="302" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="15">
         <v>32</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C302" s="5">
+      <c r="C302" s="15">
         <v>65</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303">
+    <row r="303" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="15">
         <v>32</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C303" s="5">
+      <c r="C303" s="15">
         <v>66</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304">
+    <row r="304" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="15">
         <v>32</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C304" s="15">
         <v>67</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305">
+    <row r="305" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="15">
         <v>32</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C305" s="5">
+      <c r="C305" s="15">
         <v>68</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306">
+    <row r="306" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="15">
         <v>32</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C306" s="5">
+      <c r="C306" s="15">
         <v>69</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307">
+    <row r="307" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="15">
         <v>32</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C307" s="5">
+      <c r="C307" s="15">
         <v>70</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308">
+    <row r="308" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="15">
         <v>32</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C308" s="5">
+      <c r="C308" s="15">
         <v>71</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309">
+    <row r="309" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="15">
         <v>32</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C309" s="5">
+      <c r="C309" s="15">
         <v>72</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310">
+    <row r="310" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="15">
         <v>32</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C310" s="5">
+      <c r="C310" s="15">
         <v>73</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311">
+    <row r="311" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="15">
         <v>32</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C311" s="5">
+      <c r="C311" s="15">
         <v>74</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312">
+    <row r="312" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="15">
         <v>32</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C312" s="5">
+      <c r="C312" s="15">
         <v>75</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313">
+    <row r="313" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="15">
         <v>32</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C313" s="5">
+      <c r="C313" s="15">
         <v>76</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314">
+    <row r="314" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="15">
         <v>32</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C314" s="5">
+      <c r="C314" s="15">
         <v>77</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315">
+    <row r="315" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="15">
         <v>32</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C315" s="5">
+      <c r="C315" s="15">
         <v>78</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316">
+    <row r="316" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="15">
         <v>32</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C316" s="5">
+      <c r="C316" s="15">
         <v>79</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="15" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317">
+    <row r="317" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="15">
         <v>32</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C317" s="5">
+      <c r="C317" s="15">
         <v>80</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318">
+    <row r="318" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="15">
         <v>32</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C318" s="5">
+      <c r="C318" s="15">
         <v>81</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319">
+    <row r="319" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="15">
         <v>32</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C319" s="5">
+      <c r="C319" s="15">
         <v>82</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320">
+    <row r="320" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="15">
         <v>32</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C320" s="5">
+      <c r="C320" s="15">
         <v>83</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="15" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321">
+    <row r="321" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="15">
         <v>32</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C321" s="5">
+      <c r="C321" s="15">
         <v>84</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="15" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322">
+    <row r="322" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="15">
         <v>32</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C322" s="5">
+      <c r="C322" s="15">
         <v>85</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="15" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323">
+    <row r="323" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="15">
         <v>32</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C323" s="5">
+      <c r="C323" s="15">
         <v>86</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324">
+    <row r="324" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="15">
         <v>32</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C324" s="5">
+      <c r="C324" s="15">
         <v>87</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325">
+    <row r="325" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="15">
         <v>32</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C325" s="5">
+      <c r="C325" s="15">
         <v>88</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326">
+    <row r="326" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="15">
         <v>32</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C326" s="5">
+      <c r="C326" s="15">
         <v>89</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327">
+    <row r="327" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="15">
         <v>32</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C327" s="5">
+      <c r="C327" s="15">
         <v>90</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328">
+    <row r="328" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="15">
         <v>32</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C328" s="5">
+      <c r="C328" s="15">
         <v>91</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329">
+    <row r="329" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="15">
         <v>32</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C329" s="5">
+      <c r="C329" s="15">
         <v>92</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330">
+    <row r="330" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="15">
         <v>32</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C330" s="5">
+      <c r="C330" s="15">
         <v>93</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331">
+    <row r="331" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="15">
         <v>32</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C331" s="5">
+      <c r="C331" s="15">
         <v>94</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332">
+    <row r="332" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="15">
         <v>32</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C332" s="5">
+      <c r="C332" s="15">
         <v>95</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333">
+    <row r="333" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="15">
         <v>32</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C333" s="5">
+      <c r="C333" s="15">
         <v>96</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334">
+    <row r="334" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="15">
         <v>32</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="15">
         <v>97</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335">
+    <row r="335" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="15">
         <v>32</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="15">
         <v>98</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336">
+    <row r="336" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="15">
         <v>32</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="15">
         <v>99</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="15" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337">
+    <row r="337" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="15">
         <v>32</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="15">
         <v>100</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338">
+    <row r="338" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="15">
         <v>32</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="15">
         <v>101</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339">
+    <row r="339" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="15">
         <v>32</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="15">
         <v>102</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340">
+    <row r="340" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="15">
         <v>32</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="15">
         <v>103</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341">
+    <row r="341" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="15">
         <v>32</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="15">
         <v>104</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342">
+    <row r="342" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="15">
         <v>32</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="15">
         <v>105</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343">
+    <row r="343" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="15">
         <v>32</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="15">
         <v>106</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344">
+    <row r="344" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="15">
         <v>32</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="15">
         <v>107</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="15" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345">
+    <row r="345" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="15">
         <v>32</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="15">
         <v>108</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346">
+    <row r="346" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="15">
         <v>32</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="15">
         <v>109</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347">
+    <row r="347" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="15">
         <v>32</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="15">
         <v>110</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="15" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348">
+    <row r="348" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="15">
         <v>32</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="15">
         <v>111</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349">
+    <row r="349" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="15">
         <v>32</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="15">
         <v>112</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350">
+    <row r="350" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="15">
         <v>32</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="15">
         <v>113</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351">
+    <row r="351" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="15">
         <v>32</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="15">
         <v>114</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352">
+    <row r="352" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="15">
         <v>32</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="15">
         <v>115</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="15" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353">
+    <row r="353" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="15">
         <v>32</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="15">
         <v>116</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354">
+    <row r="354" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="15">
         <v>32</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="15">
         <v>117</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355">
+    <row r="355" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="15">
         <v>32</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="15">
         <v>118</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356">
+    <row r="356" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="15">
         <v>32</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="15">
         <v>119</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357">
+    <row r="357" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="15">
         <v>32</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="15">
         <v>120</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358">
+    <row r="358" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="15">
         <v>32</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="15">
         <v>121</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359">
+    <row r="359" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="15">
         <v>32</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="15">
         <v>122</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360">
+    <row r="360" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="15">
         <v>32</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="15">
         <v>123</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361">
+    <row r="361" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="15">
         <v>32</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="15">
         <v>124</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362">
+    <row r="362" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="15">
         <v>32</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="15">
         <v>125</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363">
+    <row r="363" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="15">
         <v>32</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="15">
         <v>126</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364">
+    <row r="364" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="15">
         <v>32</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="15">
         <v>127</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365">
+    <row r="365" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="15">
         <v>32</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="15">
         <v>128</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366">
+    <row r="366" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="15">
         <v>32</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="15">
         <v>129</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367">
+    <row r="367" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="15">
         <v>32</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="15">
         <v>130</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368">
+    <row r="368" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="15">
         <v>32</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="15">
         <v>131</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369">
+    <row r="369" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="15">
         <v>32</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="15">
         <v>132</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370">
+    <row r="370" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="15">
         <v>32</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="15">
         <v>133</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371">
+    <row r="371" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="15">
         <v>32</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="15">
         <v>134</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372">
+    <row r="372" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="15">
         <v>32</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="15">
         <v>135</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373">
+    <row r="373" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="15">
         <v>32</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="15">
         <v>136</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374">
+    <row r="374" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="15">
         <v>32</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="15">
         <v>137</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375">
+    <row r="375" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="15">
         <v>32</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="15">
         <v>138</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376">
+    <row r="376" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="15">
         <v>32</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="15">
         <v>139</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377">
+    <row r="377" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="15">
         <v>32</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="15">
         <v>140</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378">
+    <row r="378" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="15">
         <v>32</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="15">
         <v>141</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379">
+    <row r="379" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="15">
         <v>32</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="15">
         <v>142</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380">
+    <row r="380" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="15">
         <v>32</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="15">
         <v>143</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381">
+    <row r="381" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="15">
         <v>32</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="15">
         <v>144</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382">
+    <row r="382" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="15">
         <v>32</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="15">
         <v>145</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383">
+    <row r="383" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="15">
         <v>32</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="15">
         <v>146</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384">
+    <row r="384" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="15">
         <v>32</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="15">
         <v>147</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385">
+    <row r="385" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="15">
         <v>32</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="15">
         <v>148</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386">
+    <row r="386" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="15">
         <v>33</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="15">
         <v>1</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387">
+    <row r="387" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="15">
         <v>33</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="15">
         <v>2</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388">
+    <row r="388" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="15">
         <v>33</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="15">
         <v>3</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389">
+    <row r="389" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="15">
         <v>33</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="15">
         <v>4</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A390">
+    <row r="390" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="15">
         <v>33</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="15">
         <v>5</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391">
+    <row r="391" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="15">
         <v>33</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="15">
         <v>6</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392">
+    <row r="392" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="15">
         <v>33</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="15">
         <v>7</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393">
+    <row r="393" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="15">
         <v>33</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="15">
         <v>8</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394">
+    <row r="394" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="15">
         <v>33</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="15">
         <v>9</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395">
+    <row r="395" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="15">
         <v>33</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="15">
         <v>10</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396">
+    <row r="396" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="15">
         <v>33</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="15">
         <v>11</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397">
+    <row r="397" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="15">
         <v>33</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="15">
         <v>12</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398">
+    <row r="398" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="15">
         <v>33</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="15">
         <v>13</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A399">
+    <row r="399" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="15">
         <v>33</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="15">
         <v>14</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400">
+    <row r="400" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="15">
         <v>33</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="15">
         <v>15</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="15" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401">
+    <row r="401" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="15">
         <v>33</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="15">
         <v>16</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A402">
+    <row r="402" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="15">
         <v>33</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="15">
         <v>17</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="15" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A403">
+    <row r="403" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="15">
         <v>33</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="15">
         <v>18</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A404">
+    <row r="404" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="15">
         <v>33</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="15">
         <v>19</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A405">
+    <row r="405" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="15">
         <v>33</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="15">
         <v>20</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="15" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406">
+    <row r="406" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="15">
         <v>33</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="15">
         <v>21</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407">
+    <row r="407" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="15">
         <v>33</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="15">
         <v>22</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A408">
+    <row r="408" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="15">
         <v>33</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="15">
         <v>23</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409">
+    <row r="409" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="15">
         <v>33</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="15">
         <v>24</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="15" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410">
+    <row r="410" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="15">
         <v>33</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="15">
         <v>25</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="15" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A411">
+    <row r="411" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="15">
         <v>33</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="15">
         <v>26</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A412">
+    <row r="412" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="15">
         <v>33</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="15">
         <v>27</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A413">
+    <row r="413" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="15">
         <v>33</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="15">
         <v>28</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A414">
+    <row r="414" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="15">
         <v>33</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="15">
         <v>29</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415">
+    <row r="415" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="15">
         <v>33</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="15">
         <v>30</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416">
+    <row r="416" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="15">
         <v>33</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="15">
         <v>31</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A417">
+    <row r="417" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="15">
         <v>33</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="15">
         <v>32</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418">
+    <row r="418" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="15">
         <v>33</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="15">
         <v>33</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="15" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419">
+    <row r="419" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="15">
         <v>33</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="15">
         <v>34</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="15" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A420">
+    <row r="420" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="15">
         <v>33</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="15">
         <v>35</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421">
+    <row r="421" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="15">
         <v>33</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="15">
         <v>36</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422">
+    <row r="422" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="15">
         <v>33</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="15">
         <v>37</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423">
+    <row r="423" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="15">
         <v>33</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="15">
         <v>38</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424">
+    <row r="424" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="15">
         <v>33</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="15">
         <v>39</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425">
+    <row r="425" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="15">
         <v>33</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="15">
         <v>40</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426">
+    <row r="426" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="15">
         <v>33</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="15">
         <v>41</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="15" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427">
+    <row r="427" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="15">
         <v>33</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="15">
         <v>42</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="15" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428">
+    <row r="428" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="15">
         <v>33</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="15">
         <v>43</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429">
+    <row r="429" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="15">
         <v>33</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="15">
         <v>44</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430">
+    <row r="430" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="15">
         <v>33</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="15">
         <v>45</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="15" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431">
+    <row r="431" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="15">
         <v>33</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="15">
         <v>46</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432">
+    <row r="432" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="15">
         <v>33</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="15">
         <v>47</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433">
+    <row r="433" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="15">
         <v>33</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="15">
         <v>48</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434">
+    <row r="434" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="15">
         <v>33</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="15">
         <v>49</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A435">
+    <row r="435" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="15">
         <v>33</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="15">
         <v>50</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436">
+    <row r="436" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="15">
         <v>33</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="15">
         <v>51</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437">
+    <row r="437" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="15">
         <v>33</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="15">
         <v>52</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438">
+    <row r="438" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="15">
         <v>33</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="15">
         <v>53</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439">
+    <row r="439" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="15">
         <v>33</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="15">
         <v>54</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440">
+    <row r="440" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="15">
         <v>33</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="15">
         <v>55</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441">
+    <row r="441" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="15">
         <v>33</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="15">
         <v>56</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="15" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442">
+    <row r="442" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="15">
         <v>33</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="15">
         <v>57</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="443" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="5">
+    <row r="443" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="15">
         <v>33</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B443" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C443" s="5">
+      <c r="C443" s="15">
         <v>58</v>
       </c>
-      <c r="D443" s="5" t="s">
+      <c r="D443" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="444" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A444" s="5">
+    <row r="444" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="15">
         <v>33</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B444" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C444" s="5">
+      <c r="C444" s="15">
         <v>59</v>
       </c>
-      <c r="D444" s="5" t="s">
+      <c r="D444" s="15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="445" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="5">
+    <row r="445" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="15">
         <v>33</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="B445" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C445" s="5">
+      <c r="C445" s="15">
         <v>60</v>
       </c>
-      <c r="D445" s="5" t="s">
+      <c r="D445" s="15" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="5">
+    <row r="446" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="15">
         <v>33</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B446" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C446" s="5">
+      <c r="C446" s="15">
         <v>61</v>
       </c>
-      <c r="D446" s="5" t="s">
+      <c r="D446" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="447" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="5">
+    <row r="447" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="15">
         <v>33</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="B447" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="C447" s="5">
+      <c r="C447" s="15">
         <v>62</v>
       </c>
-      <c r="D447" s="5" t="s">
+      <c r="D447" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448">
+    <row r="448" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="15">
         <v>34</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="15">
         <v>1</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449">
+    <row r="449" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="15">
         <v>34</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="15">
         <v>2</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450">
+    <row r="450" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="15">
         <v>34</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="15">
         <v>3</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451">
+    <row r="451" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="15">
         <v>34</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="15">
         <v>8</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452">
+    <row r="452" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="15">
         <v>34</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="15">
         <v>9</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453">
+    <row r="453" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="15">
         <v>34</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="15">
         <v>10</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454">
+    <row r="454" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="15">
         <v>34</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="15">
         <v>13</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455">
+    <row r="455" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="15">
         <v>35</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="15">
         <v>0</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A456">
+    <row r="456" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="15">
         <v>35</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="15">
         <v>3</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457">
+    <row r="457" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="15">
         <v>36</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="15">
         <v>1</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A458">
+    <row r="458" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="15">
         <v>36</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="15">
         <v>3</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D458" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A459">
+    <row r="459" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="15">
         <v>36</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="15">
         <v>4</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460">
+    <row r="460" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="15">
         <v>37</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="15">
         <v>1</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="15" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461">
+    <row r="461" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="15">
         <v>37</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="15">
         <v>2</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A462">
+    <row r="462" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="15">
         <v>37</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="15">
         <v>3</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463">
+    <row r="463" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="15">
         <v>38</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="15">
         <v>1</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464">
+    <row r="464" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="15">
         <v>38</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="15">
         <v>2</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A465">
+    <row r="465" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="15">
         <v>38</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="15">
         <v>3</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="15" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A466">
+    <row r="466" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="15">
         <v>38</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="15">
         <v>4</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467">
+    <row r="467" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="15">
         <v>38</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="15">
         <v>5</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D467" s="15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A468">
+    <row r="468" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="15">
         <v>38</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="15">
         <v>6</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="15" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A469">
+    <row r="469" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="15">
         <v>38</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="15">
         <v>7</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470">
+    <row r="470" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="15">
         <v>38</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="15">
         <v>8</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A471">
+    <row r="471" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="15">
         <v>38</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="15">
         <v>9</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A472">
+    <row r="472" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="15">
         <v>38</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="15">
         <v>10</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473">
+    <row r="473" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="15">
         <v>38</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="15">
         <v>11</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D473" s="15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A474">
+    <row r="474" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="15">
         <v>38</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="15">
         <v>12</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D474" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475">
+    <row r="475" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="15">
         <v>38</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="15">
         <v>13</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476">
+    <row r="476" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="15">
         <v>38</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="15">
         <v>14</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A477">
+    <row r="477" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="15">
         <v>38</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="15">
         <v>15</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D477" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A478">
+    <row r="478" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="15">
         <v>38</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="15">
         <v>16</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A479">
+    <row r="479" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="15">
         <v>38</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="15">
         <v>17</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A480">
+    <row r="480" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="15">
         <v>38</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="15">
         <v>18</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D480" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A481">
+    <row r="481" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="15">
         <v>38</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="15">
         <v>19</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A482">
+    <row r="482" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="15">
         <v>38</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="15">
         <v>20</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="15" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A483">
+    <row r="483" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="15">
         <v>38</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="15">
         <v>21</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A484">
+    <row r="484" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="15">
         <v>38</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="15">
         <v>22</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D484" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A485">
+    <row r="485" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="15">
         <v>38</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="15">
         <v>23</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A486">
+    <row r="486" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="15">
         <v>38</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="15">
         <v>24</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D486" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A487">
+    <row r="487" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="15">
         <v>38</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="15">
         <v>25</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D487" s="15" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A488">
+    <row r="488" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="15">
         <v>38</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="15">
         <v>26</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="15" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A489">
+    <row r="489" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="15">
         <v>38</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="15">
         <v>27</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A490">
+    <row r="490" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="15">
         <v>38</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="15">
         <v>29</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A491">
+    <row r="491" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="15">
         <v>38</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="15">
         <v>30</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="15" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A492">
+    <row r="492" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="15">
         <v>38</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="15">
         <v>33</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="15" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A493">
+    <row r="493" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="15">
         <v>38</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="15">
         <v>34</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A494">
+    <row r="494" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="15">
         <v>38</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="15">
         <v>35</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D494" s="15" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A495">
+    <row r="495" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="15">
         <v>38</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="15">
         <v>36</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="15" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A496">
+    <row r="496" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="15">
         <v>38</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="15">
         <v>37</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D496" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A497">
+    <row r="497" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="15">
         <v>38</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="15">
         <v>38</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="15" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A498">
+    <row r="498" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="15">
         <v>38</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="15">
         <v>39</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D498" s="15" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A499">
+    <row r="499" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="15">
         <v>38</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="15">
         <v>40</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D499" s="15" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A500">
+    <row r="500" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="15">
         <v>38</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="15">
         <v>41</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D500" s="15" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A501">
+    <row r="501" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="15">
         <v>38</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="15">
         <v>42</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D501" s="15" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A502">
+    <row r="502" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="15">
         <v>38</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="15">
         <v>43</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="15" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A503">
+    <row r="503" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="15">
         <v>38</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="15">
         <v>44</v>
       </c>
-      <c r="D503" t="s">
+      <c r="D503" s="15" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A504">
+    <row r="504" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="15">
         <v>38</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C504">
+      <c r="C504" s="15">
         <v>45</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D504" s="15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A505">
+    <row r="505" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="15">
         <v>38</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="15">
         <v>46</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A506">
+    <row r="506" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="5">
+        <v>38</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C506" s="5">
+        <v>47</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="5">
+        <v>38</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C507" s="5">
+        <v>48</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="15">
         <v>39</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B508" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C506">
+      <c r="C508" s="15">
         <v>1</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D508" s="15" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A507">
+    <row r="509" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="15">
         <v>39</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B509" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C507">
+      <c r="C509" s="15">
         <v>3</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D509" s="15" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A508">
+    <row r="510" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="15">
         <v>39</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B510" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="C508">
+      <c r="C510" s="15">
         <v>4</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D510" s="15" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A509">
+    <row r="511" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="15">
         <v>40</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B511" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C509">
+      <c r="C511" s="15">
         <v>1</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D511" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A510">
+    <row r="512" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="15">
         <v>40</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B512" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C510">
+      <c r="C512" s="15">
         <v>2</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D512" s="15" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A511">
+    <row r="513" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="15">
         <v>40</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B513" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C511">
+      <c r="C513" s="15">
         <v>3</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D513" s="15" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A512">
+    <row r="514" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="15">
         <v>41</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B514" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C512">
+      <c r="C514" s="15">
         <v>1</v>
       </c>
-      <c r="D512" t="s">
+      <c r="D514" s="15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A513">
+    <row r="515" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="15">
         <v>41</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B515" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C513">
+      <c r="C515" s="15">
         <v>2</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D515" s="15" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A514">
+    <row r="516" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="15">
         <v>41</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B516" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C514">
+      <c r="C516" s="15">
         <v>3</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D516" s="15" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A515">
+    <row r="517" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="15">
         <v>42</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B517" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C515">
+      <c r="C517" s="15">
         <v>1</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D517" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A516">
+    <row r="518" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="15">
         <v>42</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B518" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C516">
+      <c r="C518" s="15">
         <v>2</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D518" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A517">
+    <row r="519" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="15">
         <v>42</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B519" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C517">
+      <c r="C519" s="15">
         <v>3</v>
       </c>
-      <c r="D517" t="s">
+      <c r="D519" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A518">
+    <row r="520" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="15">
         <v>42</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B520" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="C518">
+      <c r="C520" s="15">
         <v>99</v>
       </c>
-      <c r="D518" t="s">
+      <c r="D520" s="15" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D518" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A508:J566">
-    <sortCondition descending="1" ref="C508:C566"/>
+  <autoFilter ref="A1:D520" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A510:J568">
+    <sortCondition descending="1" ref="C510:C568"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17253,12 +17287,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7BB265D7978C04697446D294C34266E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="884d559af15d355cca1525f15b65ea2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77672a2e-0500-447c-bfb5-fe50f00aefa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8903f88819ac4802e9a17e43e02e9a2c" ns2:_="">
     <xsd:import namespace="77672a2e-0500-447c-bfb5-fe50f00aefa9"/>
@@ -17404,6 +17432,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
   <ds:schemaRefs>
@@ -17413,15 +17447,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C6275C-4ECA-4DA0-9DFB-79D242E0383C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17437,4 +17462,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LSA Data Dictionary FY2019.xlsx
+++ b/LSA Data Dictionary FY2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84a436417b82d0fe/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50655E76-CD08-4FE4-B513-CF83006CCD74}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{DFCBF1A5-9043-4C5C-B1DD-C2D2BC6E3DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A58F3D6-1D9A-46D3-A06C-5501AEB1D2E1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Columns!$A$1:$H$286</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lists!$A$1:$D$522</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="965">
   <si>
     <t>File ID</t>
   </si>
@@ -3060,6 +3060,12 @@
   </si>
   <si>
     <t xml:space="preserve">HUD:  HOPWA - CV </t>
+  </si>
+  <si>
+    <t>Average days to return after exit from RRH with no move-in date</t>
+  </si>
+  <si>
+    <t>Average days to return after exit from PSH with no move-in date</t>
   </si>
 </sst>
 </file>
@@ -3723,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D520"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A506" sqref="A506:XFD507"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9995,30 +10001,30 @@
     </row>
     <row r="448" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A448" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="C448" s="15">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D448" s="15" t="s">
-        <v>227</v>
+        <v>963</v>
       </c>
     </row>
     <row r="449" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A449" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="C449" s="15">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>228</v>
+        <v>964</v>
       </c>
     </row>
     <row r="450" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10029,10 +10035,10 @@
         <v>461</v>
       </c>
       <c r="C450" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
     </row>
     <row r="451" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10043,10 +10049,10 @@
         <v>461</v>
       </c>
       <c r="C451" s="15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="452" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10057,10 +10063,10 @@
         <v>461</v>
       </c>
       <c r="C452" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10071,10 +10077,10 @@
         <v>461</v>
       </c>
       <c r="C453" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
     </row>
     <row r="454" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10085,66 +10091,66 @@
         <v>461</v>
       </c>
       <c r="C454" s="15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="455" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A455" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C455" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="456" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A456" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C456" s="15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="457" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A457" s="15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C457" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="458" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A458" s="15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C458" s="15">
         <v>3</v>
       </c>
       <c r="D458" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="459" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10155,38 +10161,38 @@
         <v>468</v>
       </c>
       <c r="C459" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>118</v>
+        <v>469</v>
       </c>
     </row>
     <row r="460" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A460" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C460" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="461" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A461" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C461" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>473</v>
+        <v>118</v>
       </c>
     </row>
     <row r="462" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10197,38 +10203,38 @@
         <v>471</v>
       </c>
       <c r="C462" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D462" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="463" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A463" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="C463" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="464" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A464" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="C464" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D464" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="465" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10239,10 +10245,10 @@
         <v>31</v>
       </c>
       <c r="C465" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D465" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="466" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10253,10 +10259,10 @@
         <v>31</v>
       </c>
       <c r="C466" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D466" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="467" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10267,10 +10273,10 @@
         <v>31</v>
       </c>
       <c r="C467" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D467" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="468" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10281,10 +10287,10 @@
         <v>31</v>
       </c>
       <c r="C468" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="469" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10295,10 +10301,10 @@
         <v>31</v>
       </c>
       <c r="C469" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D469" s="15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="470" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10309,10 +10315,10 @@
         <v>31</v>
       </c>
       <c r="C470" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D470" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="471" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10323,10 +10329,10 @@
         <v>31</v>
       </c>
       <c r="C471" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D471" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="472" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10337,10 +10343,10 @@
         <v>31</v>
       </c>
       <c r="C472" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D472" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="473" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10351,10 +10357,10 @@
         <v>31</v>
       </c>
       <c r="C473" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="474" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10365,10 +10371,10 @@
         <v>31</v>
       </c>
       <c r="C474" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="475" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10379,10 +10385,10 @@
         <v>31</v>
       </c>
       <c r="C475" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D475" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="476" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10393,10 +10399,10 @@
         <v>31</v>
       </c>
       <c r="C476" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="477" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10407,10 +10413,10 @@
         <v>31</v>
       </c>
       <c r="C477" s="15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D477" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="478" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10421,10 +10427,10 @@
         <v>31</v>
       </c>
       <c r="C478" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D478" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="479" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10435,10 +10441,10 @@
         <v>31</v>
       </c>
       <c r="C479" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="480" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10449,10 +10455,10 @@
         <v>31</v>
       </c>
       <c r="C480" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D480" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="481" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10463,10 +10469,10 @@
         <v>31</v>
       </c>
       <c r="C481" s="15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D481" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="482" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10477,10 +10483,10 @@
         <v>31</v>
       </c>
       <c r="C482" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="483" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10491,10 +10497,10 @@
         <v>31</v>
       </c>
       <c r="C483" s="15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D483" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="484" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10505,10 +10511,10 @@
         <v>31</v>
       </c>
       <c r="C484" s="15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D484" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="485" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10519,10 +10525,10 @@
         <v>31</v>
       </c>
       <c r="C485" s="15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D485" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="486" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10533,10 +10539,10 @@
         <v>31</v>
       </c>
       <c r="C486" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D486" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="487" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10547,10 +10553,10 @@
         <v>31</v>
       </c>
       <c r="C487" s="15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D487" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="488" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10561,10 +10567,10 @@
         <v>31</v>
       </c>
       <c r="C488" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D488" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="489" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10575,10 +10581,10 @@
         <v>31</v>
       </c>
       <c r="C489" s="15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D489" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="490" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10589,10 +10595,10 @@
         <v>31</v>
       </c>
       <c r="C490" s="15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D490" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="491" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10603,10 +10609,10 @@
         <v>31</v>
       </c>
       <c r="C491" s="15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D491" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="492" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10617,10 +10623,10 @@
         <v>31</v>
       </c>
       <c r="C492" s="15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D492" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10631,10 +10637,10 @@
         <v>31</v>
       </c>
       <c r="C493" s="15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D493" s="15" t="s">
-        <v>118</v>
+        <v>503</v>
       </c>
     </row>
     <row r="494" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10645,10 +10651,10 @@
         <v>31</v>
       </c>
       <c r="C494" s="15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D494" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="495" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10659,10 +10665,10 @@
         <v>31</v>
       </c>
       <c r="C495" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D495" s="15" t="s">
-        <v>506</v>
+        <v>118</v>
       </c>
     </row>
     <row r="496" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10673,10 +10679,10 @@
         <v>31</v>
       </c>
       <c r="C496" s="15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D496" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="497" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10687,10 +10693,10 @@
         <v>31</v>
       </c>
       <c r="C497" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D497" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="498" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10701,10 +10707,10 @@
         <v>31</v>
       </c>
       <c r="C498" s="15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D498" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="499" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10715,10 +10721,10 @@
         <v>31</v>
       </c>
       <c r="C499" s="15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D499" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="500" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10729,10 +10735,10 @@
         <v>31</v>
       </c>
       <c r="C500" s="15">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D500" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="501" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10743,10 +10749,10 @@
         <v>31</v>
       </c>
       <c r="C501" s="15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D501" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="502" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10757,10 +10763,10 @@
         <v>31</v>
       </c>
       <c r="C502" s="15">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D502" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="503" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10771,10 +10777,10 @@
         <v>31</v>
       </c>
       <c r="C503" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D503" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="504" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10785,10 +10791,10 @@
         <v>31</v>
       </c>
       <c r="C504" s="15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D504" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="505" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10799,66 +10805,66 @@
         <v>31</v>
       </c>
       <c r="C505" s="15">
+        <v>44</v>
+      </c>
+      <c r="D505" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="15">
+        <v>38</v>
+      </c>
+      <c r="B506" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C506" s="15">
+        <v>45</v>
+      </c>
+      <c r="D506" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="15">
+        <v>38</v>
+      </c>
+      <c r="B507" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C507" s="15">
         <v>46</v>
       </c>
-      <c r="D505" s="15" t="s">
+      <c r="D507" s="15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="506" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="5">
+    <row r="508" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="5">
         <v>38</v>
       </c>
-      <c r="B506" s="5" t="s">
+      <c r="B508" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C506" s="5">
+      <c r="C508" s="5">
         <v>47</v>
       </c>
-      <c r="D506" s="5" t="s">
+      <c r="D508" s="5" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="507" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="5">
+    <row r="509" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="5">
         <v>38</v>
       </c>
-      <c r="B507" s="5" t="s">
+      <c r="B509" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C507" s="5">
+      <c r="C509" s="5">
         <v>48</v>
       </c>
-      <c r="D507" s="5" t="s">
+      <c r="D509" s="5" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="15">
-        <v>39</v>
-      </c>
-      <c r="B508" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C508" s="15">
-        <v>1</v>
-      </c>
-      <c r="D508" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="15">
-        <v>39</v>
-      </c>
-      <c r="B509" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C509" s="15">
-        <v>3</v>
-      </c>
-      <c r="D509" s="15" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="510" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10869,38 +10875,38 @@
         <v>517</v>
       </c>
       <c r="C510" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D510" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="511" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A511" s="15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B511" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C511" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D511" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="512" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A512" s="15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B512" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C512" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D512" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="513" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10911,38 +10917,38 @@
         <v>521</v>
       </c>
       <c r="C513" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D513" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="514" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A514" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B514" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C514" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D514" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A515" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B515" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C515" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D515" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="516" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10953,38 +10959,38 @@
         <v>525</v>
       </c>
       <c r="C516" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D516" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="517" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A517" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B517" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C517" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517" s="15" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
     </row>
     <row r="518" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A518" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B518" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C518" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D518" s="15" t="s">
-        <v>114</v>
+        <v>528</v>
       </c>
     </row>
     <row r="519" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10995,10 +11001,10 @@
         <v>529</v>
       </c>
       <c r="C519" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D519" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="520" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -11009,16 +11015,44 @@
         <v>529</v>
       </c>
       <c r="C520" s="15">
+        <v>2</v>
+      </c>
+      <c r="D520" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="15">
+        <v>42</v>
+      </c>
+      <c r="B521" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C521" s="15">
+        <v>3</v>
+      </c>
+      <c r="D521" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="15">
+        <v>42</v>
+      </c>
+      <c r="B522" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C522" s="15">
         <v>99</v>
       </c>
-      <c r="D520" s="15" t="s">
+      <c r="D522" s="15" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D520" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A510:J568">
-    <sortCondition descending="1" ref="C510:C568"/>
+  <autoFilter ref="A1:D522" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A512:J570">
+    <sortCondition descending="1" ref="C512:C570"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17287,6 +17321,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7BB265D7978C04697446D294C34266E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="884d559af15d355cca1525f15b65ea2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77672a2e-0500-447c-bfb5-fe50f00aefa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8903f88819ac4802e9a17e43e02e9a2c" ns2:_="">
     <xsd:import namespace="77672a2e-0500-447c-bfb5-fe50f00aefa9"/>
@@ -17432,12 +17472,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CF5C08-B8BD-4ACA-92AF-480DA74E9990}">
   <ds:schemaRefs>
@@ -17447,6 +17481,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C6275C-4ECA-4DA0-9DFB-79D242E0383C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17462,13 +17505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378C2C19-6654-4992-87BB-EE419392A4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>